--- a/remove_tank.xlsx
+++ b/remove_tank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wadakoki/Desktop/force_calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713085DF-7EE4-374C-B121-8C942A82445E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A362E0-3393-F243-BDED-F0689D1E574C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="500" windowWidth="20720" windowHeight="15000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="20720" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha=0" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="42">
   <si>
     <t>翼1.0</t>
   </si>
@@ -94,6 +94,9 @@
     <t>翼1.5</t>
   </si>
   <si>
+    <t>1.0remove_tank</t>
+  </si>
+  <si>
     <t>左右バッテリーカバー</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>フレーム</t>
+  </si>
+  <si>
+    <t>Coupled</t>
   </si>
   <si>
     <t>X</t>
@@ -149,21 +155,6 @@
   </si>
   <si>
     <t>揚力[N]</t>
-  </si>
-  <si>
-    <t>1.0remove_tank</t>
-  </si>
-  <si>
-    <t>1.0remove_tank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左右バッテリーカバー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coupled</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -584,7 +575,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7E8-C942-B63B-80C16DECDD21}"/>
+              <c16:uniqueId val="{00000000-3201-6B43-8722-7848619C5B13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -687,7 +678,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D7E8-C942-B63B-80C16DECDD21}"/>
+              <c16:uniqueId val="{00000001-3201-6B43-8722-7848619C5B13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1013,7 +1004,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3585-A842-AD34-535CA0CA5CB0}"/>
+              <c16:uniqueId val="{00000000-3007-B44A-A3B6-2E9312B9EC1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1061,7 +1052,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-3585-A842-AD34-535CA0CA5CB0}"/>
+                <c16:uniqueId val="{00000002-3007-B44A-A3B6-2E9312B9EC1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1134,7 +1125,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3585-A842-AD34-535CA0CA5CB0}"/>
+              <c16:uniqueId val="{00000003-3007-B44A-A3B6-2E9312B9EC1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1509,7 +1500,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E900-AE45-8277-9B5A5F75E4F8}"/>
+              <c16:uniqueId val="{00000000-B623-C940-8FB8-52740E96ECB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1612,7 +1603,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E900-AE45-8277-9B5A5F75E4F8}"/>
+              <c16:uniqueId val="{00000001-B623-C940-8FB8-52740E96ECB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1649,7 +1640,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.7466719800654811E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1682,7 +1673,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.16773966885722427</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1705,7 +1696,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E900-AE45-8277-9B5A5F75E4F8}"/>
+              <c16:uniqueId val="{00000002-B623-C940-8FB8-52740E96ECB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2031,7 +2022,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE78-1141-9BC1-3BAF0F884058}"/>
+              <c16:uniqueId val="{00000000-9EE7-A741-9391-6F05B112ED43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2079,7 +2070,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-AE78-1141-9BC1-3BAF0F884058}"/>
+                <c16:uniqueId val="{00000002-9EE7-A741-9391-6F05B112ED43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2152,7 +2143,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE78-1141-9BC1-3BAF0F884058}"/>
+              <c16:uniqueId val="{00000003-9EE7-A741-9391-6F05B112ED43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2222,7 +2213,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.5338373825214329</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2245,7 +2236,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AE78-1141-9BC1-3BAF0F884058}"/>
+              <c16:uniqueId val="{00000004-9EE7-A741-9391-6F05B112ED43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2955,7 +2946,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3434,7 +3425,7 @@
     <row r="12" spans="1:18" s="11" customFormat="1"/>
     <row r="13" spans="1:18" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -3526,16 +3517,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
@@ -3620,7 +3611,7 @@
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1">
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
@@ -3734,7 +3725,7 @@
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
@@ -3789,8 +3780,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="11"/>
+    <col min="1" max="5" width="10.7109375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3803,7 +3794,7 @@
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="11">
@@ -3813,7 +3804,7 @@
         <v>1.5</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K1" s="15">
         <v>1</v>
@@ -3826,88 +3817,88 @@
       <c r="O1" s="16"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="R1" s="16"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="O3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="R3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4086,11 +4077,11 @@
       </c>
       <c r="F6" s="11">
         <f>'alpha=4'!$J$22</f>
-        <v>0</v>
+        <v>17.010803116467216</v>
       </c>
       <c r="G6" s="11">
         <f>'alpha=4'!$J$25</f>
-        <v>0</v>
+        <v>60.113411959683937</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
@@ -4100,9 +4091,9 @@
         <f t="shared" si="1"/>
         <v>4.042985405888782</v>
       </c>
-      <c r="J6" s="11" t="e">
+      <c r="J6" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.5338373825214329</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" si="3"/>
@@ -4130,11 +4121,11 @@
       </c>
       <c r="Q6" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.7466719800654811E-2</v>
       </c>
       <c r="R6" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.16773966885722427</v>
       </c>
       <c r="S6" s="11">
         <f t="shared" si="11"/>
@@ -4554,7 +4545,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:O16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5033,7 +5024,7 @@
     <row r="12" spans="1:18" s="11" customFormat="1"/>
     <row r="13" spans="1:18" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -5103,7 +5094,6 @@
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O16"/>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
         <v>0</v>
@@ -5126,16 +5116,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
@@ -5220,7 +5210,7 @@
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1">
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
@@ -5334,7 +5324,7 @@
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
@@ -5383,8 +5373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5817,7 +5807,7 @@
     <row r="12" spans="1:18" s="11" customFormat="1"/>
     <row r="13" spans="1:18" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -5865,34 +5855,124 @@
         <v>15</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="11" customFormat="1">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="11">
+        <v>5.4452809099999966</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.94726077699999978</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.9548378639999997</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.68502993499999987</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.68455656599999992</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.54959647199999995</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.31828375700000011</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.32144750100000002</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.3260098300000001</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.543762400000001</v>
+      </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
+        <v>12.776066011999994</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="11">
+        <v>13.002887299999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>23.680274600000001</v>
+      </c>
+      <c r="D15" s="11">
+        <v>23.630169899999999</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-7.7247769699999969E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-7.7604437099999993E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-7.5849052799999997E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.29423305100000002</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.28485234999999992</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.36547605500000002</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.12640035399999999</v>
+      </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
+        <v>61.153592350399997</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11">
+        <v>3.9848991400000018</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-1.4760289</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-1.47140848</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-4.6009833100000001E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-4.617881859999997E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-7.7667136299999967E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>6.2263572500000003E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>6.2713215499999989E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>3.2779985919399989E-6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1.50922494E-2</v>
+      </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
+        <v>1.0076782873985941</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1">
@@ -5912,16 +5992,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
@@ -6006,19 +6086,19 @@
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1">
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>6.3390520459223678</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>2.5968057507449656</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>2.6008692531518491</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -6026,19 +6106,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>1.8984150333775467</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.67856786037875549</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>2.897093172891732</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.010803116467216</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6120,19 +6200,19 @@
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>12.591369325232227</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>23.556513069721202</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>23.50600187138177</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -6140,19 +6220,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>-0.36401471959286591</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.53304938136592106</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>0.29049303157568285</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.113411959683937</v>
       </c>
     </row>
   </sheetData>
@@ -6165,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:S16"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6645,7 +6725,7 @@
     <row r="12" spans="1:18" s="11" customFormat="1"/>
     <row r="13" spans="1:18" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -6737,16 +6817,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
@@ -6831,7 +6911,7 @@
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1">
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
@@ -6945,7 +7025,7 @@
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
@@ -7474,7 +7554,7 @@
     <row r="12" spans="1:18" s="11" customFormat="1"/>
     <row r="13" spans="1:18" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -7566,16 +7646,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
@@ -7660,7 +7740,7 @@
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1">
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
@@ -7774,7 +7854,7 @@
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
@@ -8303,7 +8383,7 @@
     <row r="12" spans="1:18" s="11" customFormat="1"/>
     <row r="13" spans="1:18" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -8395,16 +8475,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
@@ -8489,7 +8569,7 @@
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1">
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
@@ -8603,7 +8683,7 @@
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
@@ -9132,7 +9212,7 @@
     <row r="12" spans="1:18" s="11" customFormat="1"/>
     <row r="13" spans="1:18" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -9224,16 +9304,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
@@ -9318,7 +9398,7 @@
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1">
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
@@ -9432,7 +9512,7 @@
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
@@ -9487,8 +9567,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="15" width="10.7109375" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="11"/>
+    <col min="1" max="17" width="10.7109375" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -9964,7 +10044,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -10055,16 +10135,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
@@ -10149,7 +10229,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
@@ -10263,7 +10343,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
@@ -10308,8 +10388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10346,59 +10426,59 @@
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="L3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10828,23 +10908,23 @@
     <row r="12" spans="1:13" s="11" customFormat="1"/>
     <row r="13" spans="1:13">
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="11"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>2.752401375293668</v>
@@ -10860,7 +10940,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="12">
         <v>24.810638654515088</v>

--- a/remove_tank.xlsx
+++ b/remove_tank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wadakoki/Desktop/force_calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A362E0-3393-F243-BDED-F0689D1E574C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87D2973-093D-694C-914A-25EB46B83656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="20720" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="620" windowWidth="20720" windowHeight="15000" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha=0" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="alpha=12" sheetId="7" r:id="rId7"/>
     <sheet name="alpha=14" sheetId="8" r:id="rId8"/>
     <sheet name="plot_1.0vs1.5" sheetId="9" r:id="rId9"/>
-    <sheet name="plot_1.0vs1.5vs1.5ori" sheetId="10" r:id="rId10"/>
+    <sheet name="plot_1.0vs1.5vsremove_tank" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="44">
   <si>
     <t>翼1.0</t>
   </si>
@@ -109,9 +109,6 @@
     <t>フレーム</t>
   </si>
   <si>
-    <t>Coupled</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -155,6 +152,15 @@
   </si>
   <si>
     <t>揚力[N]</t>
+  </si>
+  <si>
+    <t>従来機</t>
+  </si>
+  <si>
+    <t>1.5倍機</t>
+  </si>
+  <si>
+    <t>従来機ﾊﾞｯﾃﾘｰｶﾊﾞｰ無</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3201-6B43-8722-7848619C5B13}"/>
+              <c16:uniqueId val="{00000000-29DB-3844-A013-921F9E089419}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -678,7 +684,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3201-6B43-8722-7848619C5B13}"/>
+              <c16:uniqueId val="{00000001-29DB-3844-A013-921F9E089419}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1004,7 +1010,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3007-B44A-A3B6-2E9312B9EC1E}"/>
+              <c16:uniqueId val="{00000000-65F6-634F-9ADB-1E758378531E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1052,7 +1058,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-3007-B44A-A3B6-2E9312B9EC1E}"/>
+                <c16:uniqueId val="{00000002-65F6-634F-9ADB-1E758378531E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1125,7 +1131,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3007-B44A-A3B6-2E9312B9EC1E}"/>
+              <c16:uniqueId val="{00000003-65F6-634F-9ADB-1E758378531E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1500,7 +1506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B623-C940-8FB8-52740E96ECB4}"/>
+              <c16:uniqueId val="{00000000-856C-2846-B9BB-AD91CE439749}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1603,7 +1609,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B623-C940-8FB8-52740E96ECB4}"/>
+              <c16:uniqueId val="{00000001-856C-2846-B9BB-AD91CE439749}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1629,66 +1635,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5vs1.5ori!$Q$4:$Q$11</c:f>
+              <c:f>plot_1.0vs1.5vsremove_tank!$Q$4:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.9775660043992073E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.7432327201448752E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7466719800654811E-2</c:v>
+                  <c:v>6.2668762699711403E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.4469645428628203E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.4630281872642932E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.9656500981990137E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.1155798870154833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.13490796180331963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5vs1.5ori!$R$4:$R$11</c:f>
+              <c:f>plot_1.0vs1.5vsremove_tank!$R$4:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.2964278996164788E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.156023607422274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16773966885722427</c:v>
+                  <c:v>0.24227712900164972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.33175556285388302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.4219907944144583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.51224999070796218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.59067476114518525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.67097543035728457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,7 +1702,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B623-C940-8FB8-52740E96ECB4}"/>
+              <c16:uniqueId val="{00000002-856C-2846-B9BB-AD91CE439749}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2022,7 +2028,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9EE7-A741-9391-6F05B112ED43}"/>
+              <c16:uniqueId val="{00000000-2A8C-5C44-82E7-24A8C8E45984}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2070,7 +2076,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-9EE7-A741-9391-6F05B112ED43}"/>
+                <c16:uniqueId val="{00000002-2A8C-5C44-82E7-24A8C8E45984}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2143,7 +2149,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9EE7-A741-9391-6F05B112ED43}"/>
+              <c16:uniqueId val="{00000003-2A8C-5C44-82E7-24A8C8E45984}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2169,7 +2175,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5vs1.5ori!$A$4:$A$11</c:f>
+              <c:f>plot_1.0vs1.5vsremove_tank!$A$4:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2202,33 +2208,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5vs1.5ori!$J$4:$J$11</c:f>
+              <c:f>plot_1.0vs1.5vsremove_tank!$J$4:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.2649612067527889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.7166513186033363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5338373825214329</c:v>
+                  <c:v>3.8659950917263832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.4549099293327235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.9862860559710418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.1401562934718692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.1105324325681103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.9735791823427737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,7 +2242,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9EE7-A741-9391-6F05B112ED43}"/>
+              <c16:uniqueId val="{00000004-2A8C-5C44-82E7-24A8C8E45984}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3477,27 +3483,117 @@
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="11">
+        <v>5.0075489400000004</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.41721852</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.4184152400000001</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.68760721600000008</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.69467771200000006</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.55826996000000007</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.30823136800000001</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.31272660600000007</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.1044398600000001</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.34072598</v>
+      </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
+        <v>12.849861402</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="11">
+        <v>4.5674273800000007</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5.9065015999999986</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5.7916076599999986</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-8.4543795399999996E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-8.5141947600000045E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-8.443810580000001E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>-2.487270640000001E-2</v>
+      </c>
+      <c r="K15" s="11">
+        <v>-3.78322798E-2</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.29246438600000008</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1.340399468E-2</v>
+      </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
+        <v>16.254576185680001</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11">
+        <v>1.2983320599999999</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-0.50072617200000002</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-0.494914784</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-4.4945998000000008E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-4.5732334000000013E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-8.119218139999998E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3.4645147600000002E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>3.5247632400000013E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2.8695402600000002E-6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3.10359976E-2</v>
+      </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
+        <v>0.23175223774025991</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1">
@@ -3615,15 +3711,15 @@
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>5.0075489400000004</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>1.41721852</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>1.4184152400000001</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -3631,19 +3727,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>1.9405548880000001</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.62095797400000008</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>2.44516584</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.849861401999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1">
@@ -3729,15 +3825,15 @@
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>4.5674273800000007</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>5.9065015999999986</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>5.7916076599999986</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -3745,19 +3841,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>-0.25412384880000005</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>-6.2704986200000007E-2</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>0.30586838068000005</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.254576185680001</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1"/>
@@ -3774,131 +3870,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="5" width="10.7109375" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="11"/>
+    <col min="1" max="9" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="15">
-        <v>1</v>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="C1" s="16"/>
-      <c r="D1" s="15">
-        <v>1.5</v>
+      <c r="D1" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G1" s="16"/>
-      <c r="H1" s="11">
-        <v>1</v>
-      </c>
-      <c r="I1" s="11">
-        <v>1.5</v>
+      <c r="H1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="15">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="15">
-        <v>1.5</v>
+      <c r="N1" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="R1" s="16"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="L3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="O3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3923,11 +4019,11 @@
       </c>
       <c r="F4" s="11">
         <f>'alpha=0'!$J$22</f>
-        <v>0</v>
+        <v>12.849861401999998</v>
       </c>
       <c r="G4" s="11">
         <f>'alpha=0'!$J$25</f>
-        <v>0</v>
+        <v>16.254576185680001</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4:H11" si="0">C4/B4</f>
@@ -3937,9 +4033,9 @@
         <f t="shared" ref="I4:I11" si="1">E4/D4</f>
         <v>0.27601359602803965</v>
       </c>
-      <c r="J4" s="11" t="e">
+      <c r="J4" s="11">
         <f t="shared" ref="J4:J11" si="2">G4/F4</f>
-        <v>#DIV/0!</v>
+        <v>1.2649612067527889</v>
       </c>
       <c r="K4" s="11">
         <f t="shared" ref="K4:K11" si="3">2*B4/(1.225*28*28*M4)</f>
@@ -3967,15 +4063,15 @@
       </c>
       <c r="Q4" s="11">
         <f t="shared" ref="Q4:Q11" si="9">2*F4/(1.225*28*28*S4)</f>
-        <v>0</v>
+        <v>4.9775660043992073E-2</v>
       </c>
       <c r="R4" s="11">
         <f t="shared" ref="R4:R11" si="10">2*G4/(1.225*28*28*S4)</f>
-        <v>0</v>
+        <v>6.2964278996164788E-2</v>
       </c>
       <c r="S4" s="11">
-        <f t="shared" ref="S4:S11" si="11">0.7463</f>
-        <v>0.74629999999999996</v>
+        <f t="shared" ref="S4:S11" si="11">0.5376</f>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4000,11 +4096,11 @@
       </c>
       <c r="F5" s="11">
         <f>'alpha=2'!$J$22</f>
-        <v>0</v>
+        <v>14.826472293500149</v>
       </c>
       <c r="G5" s="11">
         <f>'alpha=2'!$J$25</f>
-        <v>0</v>
+        <v>40.278355506373011</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
@@ -4014,9 +4110,9 @@
         <f t="shared" si="1"/>
         <v>2.5730304803614632</v>
       </c>
-      <c r="J5" s="11" t="e">
+      <c r="J5" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.7166513186033363</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="3"/>
@@ -4044,15 +4140,15 @@
       </c>
       <c r="Q5" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7432327201448752E-2</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.156023607422274</v>
       </c>
       <c r="S5" s="11">
         <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4077,11 +4173,11 @@
       </c>
       <c r="F6" s="11">
         <f>'alpha=4'!$J$22</f>
-        <v>17.010803116467216</v>
+        <v>16.178287022500601</v>
       </c>
       <c r="G6" s="11">
         <f>'alpha=4'!$J$25</f>
-        <v>60.113411959683937</v>
+        <v>62.545178221527969</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
@@ -4093,7 +4189,7 @@
       </c>
       <c r="J6" s="11">
         <f t="shared" si="2"/>
-        <v>3.5338373825214329</v>
+        <v>3.8659950917263832</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" si="3"/>
@@ -4121,15 +4217,15 @@
       </c>
       <c r="Q6" s="11">
         <f t="shared" si="9"/>
-        <v>4.7466719800654811E-2</v>
+        <v>6.2668762699711403E-2</v>
       </c>
       <c r="R6" s="11">
         <f t="shared" si="10"/>
-        <v>0.16773966885722427</v>
+        <v>0.24227712900164972</v>
       </c>
       <c r="S6" s="11">
         <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4154,11 +4250,11 @@
       </c>
       <c r="F7" s="11">
         <f>'alpha=6'!$J$22</f>
-        <v>0</v>
+        <v>19.224750039843137</v>
       </c>
       <c r="G7" s="11">
         <f>'alpha=6'!$J$25</f>
-        <v>0</v>
+        <v>85.644529841436864</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
@@ -4168,9 +4264,9 @@
         <f t="shared" si="1"/>
         <v>5.4323310896610009</v>
       </c>
-      <c r="J7" s="11" t="e">
+      <c r="J7" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.4549099293327235</v>
       </c>
       <c r="K7" s="11">
         <f t="shared" si="3"/>
@@ -4198,15 +4294,15 @@
       </c>
       <c r="Q7" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.4469645428628203E-2</v>
       </c>
       <c r="R7" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.33175556285388302</v>
       </c>
       <c r="S7" s="11">
         <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4231,11 +4327,11 @@
       </c>
       <c r="F8" s="11">
         <f>'alpha=8'!$J$22</f>
-        <v>0</v>
+        <v>21.847774424578713</v>
       </c>
       <c r="G8" s="11">
         <f>'alpha=8'!$J$25</f>
-        <v>0</v>
+        <v>108.93925296727758</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
@@ -4245,9 +4341,9 @@
         <f t="shared" si="1"/>
         <v>6.047384144809536</v>
       </c>
-      <c r="J8" s="11" t="e">
+      <c r="J8" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.9862860559710418</v>
       </c>
       <c r="K8" s="11">
         <f t="shared" si="3"/>
@@ -4275,15 +4371,15 @@
       </c>
       <c r="Q8" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8.4630281872642932E-2</v>
       </c>
       <c r="R8" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.4219907944144583</v>
       </c>
       <c r="S8" s="11">
         <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4308,11 +4404,11 @@
       </c>
       <c r="F9" s="11">
         <f>'alpha=10'!$J$22</f>
-        <v>0</v>
+        <v>25.726875832386177</v>
       </c>
       <c r="G9" s="11">
         <f>'alpha=10'!$J$25</f>
-        <v>0</v>
+        <v>132.24016272120915</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
@@ -4322,9 +4418,9 @@
         <f t="shared" si="1"/>
         <v>6.2453634866101426</v>
       </c>
-      <c r="J9" s="11" t="e">
+      <c r="J9" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.1401562934718692</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" si="3"/>
@@ -4352,15 +4448,15 @@
       </c>
       <c r="Q9" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.9656500981990137E-2</v>
       </c>
       <c r="R9" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.51224999070796218</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4385,11 +4481,11 @@
       </c>
       <c r="F10" s="11">
         <f>'alpha=12'!$J$22</f>
-        <v>0</v>
+        <v>29.837585834023344</v>
       </c>
       <c r="G10" s="11">
         <f>'alpha=12'!$J$25</f>
-        <v>0</v>
+        <v>152.48595011431109</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
@@ -4399,9 +4495,9 @@
         <f t="shared" si="1"/>
         <v>6.2140258617967152</v>
       </c>
-      <c r="J10" s="11" t="e">
+      <c r="J10" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.1105324325681103</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="3"/>
@@ -4429,15 +4525,15 @@
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.1155798870154833</v>
       </c>
       <c r="R10" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.59067476114518525</v>
       </c>
       <c r="S10" s="11">
         <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4462,11 +4558,11 @@
       </c>
       <c r="F11" s="11">
         <f>'alpha=14'!$J$22</f>
-        <v>0</v>
+        <v>34.827235031476121</v>
       </c>
       <c r="G11" s="11">
         <f>'alpha=14'!$J$25</f>
-        <v>0</v>
+        <v>173.21601113110862</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
@@ -4476,9 +4572,9 @@
         <f t="shared" si="1"/>
         <v>5.9379853484917842</v>
       </c>
-      <c r="J11" s="11" t="e">
+      <c r="J11" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.9735791823427737</v>
       </c>
       <c r="K11" s="11">
         <f t="shared" si="3"/>
@@ -4506,15 +4602,15 @@
       </c>
       <c r="Q11" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.13490796180331963</v>
       </c>
       <c r="R11" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.67097543035728457</v>
       </c>
       <c r="S11" s="11">
         <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1"/>
@@ -5076,27 +5172,117 @@
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="11">
+        <v>5.7899499599999986</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.2439499999999999</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.2455902599999999</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.68099034800000002</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.68825047199999989</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.55764800599999975</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.29148365199999998</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.29390681400000002</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.1775238800000001</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.4424526799999999</v>
+      </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
+        <v>13.411746071999998</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="11">
+        <v>10.716288240000001</v>
+      </c>
+      <c r="C15" s="11">
+        <v>14.8252174</v>
+      </c>
+      <c r="D15" s="11">
+        <v>14.820102</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-7.8309599399999999E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-7.5798111000000001E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-7.43194296E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.13175873599999999</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.125765508</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.29180805199999987</v>
+      </c>
+      <c r="M15" s="11">
+        <v>8.8742645399999986E-2</v>
+      </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
+        <v>40.771255441400001</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11">
+        <v>3.39568556</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-0.95732683399999996</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-0.96825793599999965</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-4.5120565400000007E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-4.6101533600000008E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-7.598464639999998E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4.6196619999999987E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4.5980023600000017E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>4.53041288E-6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1.9568711400000011E-2</v>
+      </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
+        <v>1.4146439300128806</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1">
@@ -5214,15 +5400,15 @@
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>6.1604159450185092</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>1.7605848450355641</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>1.7620455809480586</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -5230,19 +5416,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>1.9177430251708028</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.59402132844912592</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>2.6316615688780916</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.826472293500149</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1">
@@ -5328,15 +5514,15 @@
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>10.507693827211945</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>14.772773049200813</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>14.767603521115818</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -5344,19 +5530,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>-0.29553543858727971</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.23693753455078484</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>0.28888301288092966</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.278355506373011</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1"/>
@@ -5374,7 +5560,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5854,47 +6040,44 @@
       <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="11" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="14" spans="1:18" s="11" customFormat="1">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="11">
-        <v>5.4452809099999966</v>
+        <v>5.2174210399999996</v>
       </c>
       <c r="C14" s="11">
-        <v>0.94726077699999978</v>
+        <v>0.66274006599999979</v>
       </c>
       <c r="D14" s="11">
-        <v>0.9548378639999997</v>
+        <v>0.66447995400000015</v>
       </c>
       <c r="G14" s="11">
-        <v>0.68502993499999987</v>
+        <v>0.67112730400000009</v>
       </c>
       <c r="H14" s="11">
-        <v>0.68455656599999992</v>
+        <v>0.68094836999999997</v>
       </c>
       <c r="I14" s="11">
-        <v>0.54959647199999995</v>
+        <v>0.54599096600000008</v>
       </c>
       <c r="J14" s="11">
-        <v>0.31828375700000011</v>
+        <v>0.25752182800000001</v>
       </c>
       <c r="K14" s="11">
-        <v>0.32144750100000002</v>
+        <v>0.25721847799999997</v>
       </c>
       <c r="L14" s="11">
-        <v>1.3260098300000001</v>
+        <v>1.3353634599999999</v>
       </c>
       <c r="M14" s="11">
-        <v>1.543762400000001</v>
+        <v>1.48313498</v>
       </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>12.776066011999994</v>
+        <v>11.775946445999999</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
@@ -5902,38 +6085,38 @@
         <v>17</v>
       </c>
       <c r="B15" s="11">
-        <v>13.002887299999999</v>
+        <v>14.400373</v>
       </c>
       <c r="C15" s="11">
-        <v>23.680274600000001</v>
+        <v>24.08952339999999</v>
       </c>
       <c r="D15" s="11">
-        <v>23.630169899999999</v>
+        <v>24.149542999999991</v>
       </c>
       <c r="G15" s="11">
-        <v>-7.7247769699999969E-2</v>
+        <v>-7.1140070000000014E-2</v>
       </c>
       <c r="H15" s="11">
-        <v>-7.7604437099999993E-2</v>
+        <v>-6.8380270000000007E-2</v>
       </c>
       <c r="I15" s="11">
-        <v>-7.5849052799999997E-2</v>
+        <v>-7.0270369200000016E-2</v>
       </c>
       <c r="J15" s="11">
-        <v>0.29423305100000002</v>
+        <v>0.29972721200000008</v>
       </c>
       <c r="K15" s="11">
-        <v>0.28485234999999992</v>
+        <v>0.3002700940000001</v>
       </c>
       <c r="L15" s="11">
-        <v>0.36547605500000002</v>
+        <v>0.33952932800000002</v>
       </c>
       <c r="M15" s="11">
-        <v>0.12640035399999999</v>
+        <v>0.15218624</v>
       </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>61.153592350399997</v>
+        <v>63.521361564799982</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1">
@@ -5941,38 +6124,38 @@
         <v>18</v>
       </c>
       <c r="B16" s="11">
-        <v>3.9848991400000018</v>
+        <v>4.5446051999999977</v>
       </c>
       <c r="C16" s="11">
-        <v>-1.4760289</v>
+        <v>-1.4612946200000001</v>
       </c>
       <c r="D16" s="11">
-        <v>-1.47140848</v>
+        <v>-1.4926398800000009</v>
       </c>
       <c r="G16" s="11">
-        <v>-4.6009833100000001E-2</v>
+        <v>-4.5099819600000007E-2</v>
       </c>
       <c r="H16" s="11">
-        <v>-4.617881859999997E-2</v>
+        <v>-4.6343727799999998E-2</v>
       </c>
       <c r="I16" s="11">
-        <v>-7.7667136299999967E-2</v>
+        <v>-7.4857416800000035E-2</v>
       </c>
       <c r="J16" s="11">
-        <v>6.2263572500000003E-2</v>
+        <v>5.7930860399999992E-2</v>
       </c>
       <c r="K16" s="11">
-        <v>6.2713215499999989E-2</v>
+        <v>5.7239144200000008E-2</v>
       </c>
       <c r="L16" s="11">
-        <v>3.2779985919399989E-6</v>
+        <v>4.2019159800000012E-6</v>
       </c>
       <c r="M16" s="11">
-        <v>1.50922494E-2</v>
+        <v>8.7854060999999987E-3</v>
       </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>1.0076782873985941</v>
+        <v>1.5483293484159761</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1">
@@ -6090,15 +6273,15 @@
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>6.3390520459223678</v>
+        <v>6.2092309056533344</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>2.5968057507449656</v>
+        <v>2.3415258710690146</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>2.6008692531518491</v>
+        <v>2.3474482764408262</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -6106,19 +6289,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>1.8984150333775467</v>
+        <v>1.8788087849633845</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0.67856786037875549</v>
+        <v>0.5553401208078762</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>2.897093172891732</v>
+        <v>2.8459330635661657</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>17.010803116467216</v>
+        <v>16.178287022500601</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6204,15 +6387,15 @@
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>12.591369325232227</v>
+        <v>14.001345521343408</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>23.556513069721202</v>
+        <v>23.984612121719692</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>23.50600187138177</v>
+        <v>24.044364148539078</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -6220,19 +6403,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>-0.36401471959286591</v>
+        <v>-0.34168210531419313</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0.53304938136592106</v>
+        <v>0.56262927407781116</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0.29049303157568285</v>
+        <v>0.29390926116217198</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>60.113411959683937</v>
+        <v>62.545178221527969</v>
       </c>
     </row>
   </sheetData>
@@ -6245,7 +6428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -6777,27 +6960,117 @@
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="11">
+        <v>5.4790299400000011</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-0.29407326600000011</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-0.28101084400000009</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.65996044799999998</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.67013008800000007</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.53233628399999999</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.21428142999999999</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.217653396</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.4134309</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.5554053800000009</v>
+      </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
+        <v>10.167143756000003</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="11">
+        <v>18.898708599999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>33.46860319999999</v>
+      </c>
+      <c r="D15" s="11">
+        <v>33.486599800000008</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-6.3362115799999993E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-6.1458317799999981E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-6.1505752199999993E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.47485430600000011</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.47501446400000003</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.36688932000000002</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.20055021999999989</v>
+      </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
+        <v>87.184893724199981</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11">
+        <v>5.8490389200000008</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-2.05218794</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-2.0809407599999998</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-4.4841629399999999E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-4.5973330999999999E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-7.0661318399999992E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>6.5431733399999997E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>6.4208089600000004E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>-1.3027741619999999E-6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1.5964294214000001E-3</v>
+      </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
+        <v>1.6856688908472388</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1">
@@ -6915,15 +7188,15 @@
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>7.4244682084095039</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>3.2059593583314099</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>3.2208313799589945</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -6931,19 +7204,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>1.8327478611429087</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.52885696466312149</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>3.0118862673371987</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.224750039843137</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1">
@@ -7029,15 +7302,15 @@
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>18.222464917059021</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>33.315997716375726</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>33.332530334219719</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -7045,19 +7318,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>-0.37998208490161967</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.89951580589796931</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>0.25400315278604391</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85.644529841436864</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1"/>
@@ -7075,7 +7348,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:O17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7606,27 +7879,117 @@
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="11">
+        <v>4.5917632200000007</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-1.65125228</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-1.658023819999999</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.64714745799999984</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.65612285999999997</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.520347216</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.15021069200000001</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.156766868</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.42680224</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.6338552799999999</v>
+      </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
+        <v>6.4737397340000014</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="11">
+        <v>23.261502799999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>42.960822999999991</v>
+      </c>
+      <c r="D15" s="11">
+        <v>42.844416199999984</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-5.6418107199999998E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-5.4177103800000008E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-5.2686573199999989E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.64825720799999997</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.65005730199999989</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.44193631799999988</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.27597511800000002</v>
+      </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
+        <v>110.91968616179997</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11">
+        <v>7.2480161600000024</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-2.6943012000000008</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-2.68830444</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-4.4619865800000012E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-4.5600286599999977E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-6.6503704200000013E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>7.1819422800000018E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>7.0732603000000005E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>-1.1187296999999999E-6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>-1.0474515E-2</v>
+      </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
+        <v>1.8407630554703012</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1">
@@ -7744,15 +8107,15 @@
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>7.7844519736552193</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>4.3438085503857859</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>4.3209022152187408</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -7760,19 +8123,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>1.7831457812800386</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.48468053186634741</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>3.130785372172578</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.847774424578713</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1">
@@ -7858,15 +8221,15 @@
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>22.396073527580857</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>42.77254112403341</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>42.658209603229089</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -7874,19 +8237,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>-0.41549124427233941</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>1.2429563834865038</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>0.28496357322006388</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108.93925296727758</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1"/>
@@ -7904,7 +8267,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8435,27 +8798,117 @@
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="11">
+        <v>3.988764080000001</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-3.3419958999999988</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-3.3561032599999998</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.63435712399999988</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.64583259800000004</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.50584132000000004</v>
+      </c>
+      <c r="J14" s="11">
+        <v>7.2129292799999994E-2</v>
+      </c>
+      <c r="K14" s="11">
+        <v>7.6559454799999982E-2</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.45288708</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.69449172</v>
+      </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
+        <v>2.3727635096000022</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="11">
+        <v>26.886235599999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>53.283824000000003</v>
+      </c>
+      <c r="D15" s="11">
+        <v>52.312679800000012</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-4.9643177800000007E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-4.713677119999999E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-4.5056598199999999E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.80005277000000008</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.79770596399999993</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.42129621400000022</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.33860481199999998</v>
+      </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
+        <v>134.6985626128</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11">
+        <v>8.2927782600000004</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-3.5732944600000001</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-3.3863219999999981</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-4.4622222000000003E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-4.5895866000000007E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-6.2361044599999998E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>7.5719566800000013E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>7.3437011600000004E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>-2.44598496E-6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>-2.06117626E-2</v>
+      </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
+        <v>1.3088250372150427</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1">
@@ -8573,15 +9026,15 @@
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>8.5969116071843548</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>5.961415463870436</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>5.7788850057860923</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -8589,19 +9042,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>1.7342675593342227</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.42387772393267703</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>3.2315184722783905</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.726875832386177</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1">
@@ -8687,15 +9140,15 @@
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>25.785131654557524</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>53.054654483143317</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>52.100713863046174</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -8703,19 +9156,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>-0.44982276704291069</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>1.5476656586258521</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>0.20181982887920169</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132.24016272120915</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1"/>
@@ -8732,7 +9185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -9264,27 +9717,117 @@
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="11">
+        <v>3.4559010800000012</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-5.454654800000001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-5.3972249200000011</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.62551181200000006</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.63031764999999995</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.49259362000000001</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-9.328102579999999E-3</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-1.3200578399999999E-2</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.4670502000000001</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.68498532</v>
+      </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
+        <v>-2.5180487189800003</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="11">
+        <v>30.33119739999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>61.640181000000013</v>
+      </c>
+      <c r="D15" s="11">
+        <v>60.82219139999998</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-4.1790271599999998E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-4.0420044600000003E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-3.7882387200000013E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.93319609999999997</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.92411037200000012</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.44956331999999999</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.37700228200000002</v>
+      </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
+        <v>155.3573491706</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11">
+        <v>9.5001906000000016</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-4.14694114</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-4.0027729399999998</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-4.4828143000000008E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-4.5547582000000003E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-5.8743358799999992E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>7.4244776400000032E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>6.9819210200000009E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>-4.6621223400000008E-6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>-2.799593659999999E-2</v>
+      </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
+        <v>1.3174208240776619</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1">
@@ -9402,15 +9945,15 @@
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>9.6865918857365934</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>7.4802567485715885</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>7.3663620470966702</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -9418,19 +9961,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>1.6852471657071364</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.3641193537120031</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>3.2550086331993526</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.837585834023344</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1">
@@ -9516,15 +10059,15 @@
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>28.949865727351714</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>61.427281656242734</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>60.615226748123241</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -9532,19 +10075,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>-0.48098598893976441</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>1.821403845568615</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>0.15315812596455847</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152.48595011431109</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1"/>
@@ -9567,8 +10110,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="17" width="10.7109375" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="11"/>
+    <col min="1" max="21" width="10.7109375" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -10096,27 +10639,117 @@
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="11">
+        <v>2.9332283000000001</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-7.7590747199999983</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-7.8289187799999986</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.62057813999999989</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.6162256599999999</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.47638121400000011</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-0.1484320439999999</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-0.151349602</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.46921602</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.6601173600000001</v>
+      </c>
       <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
+        <v>-8.112028451999997</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="11">
+        <v>34.117659600000003</v>
+      </c>
+      <c r="C15" s="11">
+        <v>69.540293599999984</v>
+      </c>
+      <c r="D15" s="11">
+        <v>69.729515399999997</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-3.2000115800000013E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-3.3502363200000003E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-3.1644960600000008E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1.12301388</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.1467487000000001</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.50609688599999991</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.43004541399999979</v>
+      </c>
       <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
+        <v>176.49622604039996</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11">
+        <v>10.718051000000001</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-4.7492760400000016</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-4.7227461999999996</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-4.5243146000000012E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-4.5024881599999983E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-5.497575499999998E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>6.2113728600000008E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>6.0267082800000038E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>-4.4900113599999991E-6</v>
+      </c>
+      <c r="M16">
+        <v>-3.8484495400000013E-2</v>
+      </c>
       <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
+        <v>1.1846768033886395</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10233,15 +10866,15 @@
       </c>
       <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>11.099907767538008</v>
       </c>
       <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>9.2947226075973184</v>
       </c>
       <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>9.2727301112183369</v>
       </c>
       <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -10249,19 +10882,19 @@
       </c>
       <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>1.6387940046635971</v>
       </c>
       <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>0.2582284159850089</v>
       </c>
       <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>3.2628521244738518</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34.827235031476121</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10347,15 +10980,15 @@
       </c>
       <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
+        <v>32.394607149856633</v>
       </c>
       <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
+        <v>69.351739748419874</v>
       </c>
       <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
+        <v>69.552237659669714</v>
       </c>
       <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
@@ -10363,19 +10996,19 @@
       </c>
       <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
+        <v>-0.50871871156235882</v>
       </c>
       <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
+        <v>2.274864675101488</v>
       </c>
       <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
+        <v>0.15128060962326617</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>173.21601113110862</v>
       </c>
     </row>
   </sheetData>
@@ -10426,59 +11059,59 @@
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10908,23 +11541,23 @@
     <row r="12" spans="1:13" s="11" customFormat="1"/>
     <row r="13" spans="1:13">
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="11"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>2.752401375293668</v>
@@ -10940,7 +11573,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="12">
         <v>24.810638654515088</v>
